--- a/public/template_data_siswa.xlsx
+++ b/public/template_data_siswa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\KULIAH RORA\SEMESTER 7\RISET INFORMATIKA\SKRIPSI WEB KEUANGAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\web_basada\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1087DB23-9DD0-4D4E-B784-CB0B92573F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8642F9-C782-446B-B881-62135504B3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8C6424F6-DF89-4C0F-ABF3-328303DEAA89}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>nis</t>
   </si>
@@ -51,13 +51,40 @@
   </si>
   <si>
     <t>alamat</t>
+  </si>
+  <si>
+    <t>Ananda</t>
+  </si>
+  <si>
+    <t>X/XI/XII</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Kebumen</t>
+  </si>
+  <si>
+    <t>status_siswa</t>
+  </si>
+  <si>
+    <t>Lili</t>
+  </si>
+  <si>
+    <t>Aktif</t>
+  </si>
+  <si>
+    <t>Lulus</t>
+  </si>
+  <si>
+    <t>Jika status_siswa adalah 'Lulus', maka tingkat_kelas dan jurusan dikosongkan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +115,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -109,29 +143,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,19 +506,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA3AD8A-3E53-4A54-88C6-0D35061BBDEC}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="31.42578125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="5" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,216 +534,245 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>9999</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>9998</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="5"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="5"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="5"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="5"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="5"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="5"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="5"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="5"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="5"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="5"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="6"/>
-      <c r="E17" s="7"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="5"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="6"/>
-      <c r="E18" s="7"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="5"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="6"/>
-      <c r="E19" s="7"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="5"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="6"/>
-      <c r="E20" s="7"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="5"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="6"/>
-      <c r="E21" s="7"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="5"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="6"/>
-      <c r="E22" s="7"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="5"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="6"/>
-      <c r="E23" s="7"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="5"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="6"/>
-      <c r="E24" s="7"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="5"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="6"/>
-      <c r="E25" s="7"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="5"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="8"/>
-      <c r="E26" s="7"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="7"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="6"/>
-      <c r="E27" s="7"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="5"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="6"/>
-      <c r="E28" s="7"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="5"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="6"/>
-      <c r="E29" s="8"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="5"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="6"/>
-      <c r="E30" s="7"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="5"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="6"/>
-      <c r="E31" s="8"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="5"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="6"/>
-      <c r="E32" s="7"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="5"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="6"/>
-      <c r="E33" s="8"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="5"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="6"/>
-      <c r="E34" s="7"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="5"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="6"/>
-      <c r="E35" s="7"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="5"/>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="6"/>
-      <c r="E36" s="7"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="5"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="6"/>
-      <c r="E37" s="7"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="5"/>
+      <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="6"/>
-      <c r="E38" s="7"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="5"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="6"/>
-      <c r="E39" s="7"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="5"/>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="6"/>
-      <c r="E40" s="7"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="5"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="6"/>
-      <c r="E41" s="7"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="5"/>
+      <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="6"/>
-      <c r="E42" s="7"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="5"/>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="6"/>
-      <c r="E43" s="8"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="5"/>
+      <c r="E43" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
